--- a/data/goldDatas.xlsx
+++ b/data/goldDatas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/furkanturan/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/furkanturan/Desktop/github.com/personal/my-telegram-bot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FA46194-8D23-3D4F-BBB1-455F9B1185E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B130C5C1-A0D0-7E41-A23E-7AFA450A1D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16300" xr2:uid="{CABE0D42-7BCE-884C-AED6-F947B42836B1}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <dimension ref="C4:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1080,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="3:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="3" t="s">
         <v>22</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0.99930555555555556</v>
       </c>
     </row>
-    <row r="42" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="4" t="s">
         <v>22</v>
       </c>
@@ -1137,6 +1137,10 @@
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="G27:G28"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
@@ -1149,19 +1153,11 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C15:G15"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="C15:G15"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
@@ -1174,6 +1170,10 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
@@ -1184,42 +1184,42 @@
     <mergeCell ref="G7:G8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://altin.doviz.com/ons" xr:uid="{052CF5B1-BA57-D94F-843B-D7EF4BD2748C}"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://altin.doviz.com/ons" xr:uid="{C9AB839A-92DF-7945-A998-41683BCAE7E5}"/>
-    <hyperlink ref="C7" r:id="rId3" display="https://altin.doviz.com/gram-altin" xr:uid="{129E02AA-4C96-8B4E-B7C9-DD77F15C26E0}"/>
-    <hyperlink ref="C8" r:id="rId4" display="https://altin.doviz.com/gram-altin" xr:uid="{FE394231-D2BD-844D-B5A5-5C225E516DAB}"/>
-    <hyperlink ref="C9" r:id="rId5" display="https://altin.doviz.com/gram-has-altin" xr:uid="{7D49C7B8-9456-A148-8F97-A91612DFFED1}"/>
-    <hyperlink ref="C10" r:id="rId6" display="https://altin.doviz.com/gram-has-altin" xr:uid="{27B45797-D6F6-9940-9DE9-E7B63D9FC592}"/>
-    <hyperlink ref="C11" r:id="rId7" display="https://altin.doviz.com/ceyrek-altin" xr:uid="{636898EC-1B36-2F4E-A6D8-42644DEC1679}"/>
-    <hyperlink ref="C12" r:id="rId8" display="https://altin.doviz.com/ceyrek-altin" xr:uid="{D45535F3-B897-E646-B98C-B1FF240A7A42}"/>
-    <hyperlink ref="C13" r:id="rId9" display="https://altin.doviz.com/yarim-altin" xr:uid="{450160FC-6F43-CB44-9E04-49CDDD7ED75F}"/>
-    <hyperlink ref="C14" r:id="rId10" display="https://altin.doviz.com/yarim-altin" xr:uid="{7F467FE4-CDB3-E24D-AB90-4EBC81C79EC4}"/>
-    <hyperlink ref="C16" r:id="rId11" display="https://altin.doviz.com/tam-altin" xr:uid="{DDCF1E62-6E5C-6D4C-821F-206F25E31964}"/>
-    <hyperlink ref="C17" r:id="rId12" display="https://altin.doviz.com/tam-altin" xr:uid="{4AA8C15A-0BF4-8F49-BFCF-9FF10C908335}"/>
-    <hyperlink ref="C18" r:id="rId13" display="https://altin.doviz.com/cumhuriyet-altini" xr:uid="{08E9B132-11B2-0C47-A013-D60CE7C2D215}"/>
-    <hyperlink ref="C19" r:id="rId14" display="https://altin.doviz.com/cumhuriyet-altini" xr:uid="{8D51A63A-500C-2141-9A79-213B14A3CB56}"/>
-    <hyperlink ref="C20" r:id="rId15" display="https://altin.doviz.com/ata-altin" xr:uid="{C3F6FC70-CD8C-7546-BE2A-7A1DC2C72DC1}"/>
-    <hyperlink ref="C21" r:id="rId16" display="https://altin.doviz.com/ata-altin" xr:uid="{5C356562-F8FD-0D4D-9C90-302ECF18DB5A}"/>
-    <hyperlink ref="C22" r:id="rId17" display="https://altin.doviz.com/14-ayar-altin" xr:uid="{01BE2E4F-D2E0-8F49-B74F-F3417816AFD9}"/>
-    <hyperlink ref="C23" r:id="rId18" display="https://altin.doviz.com/14-ayar-altin" xr:uid="{FB9FC2E1-03AA-3641-A1AC-08EDB2C56556}"/>
-    <hyperlink ref="C24" r:id="rId19" display="https://altin.doviz.com/18-ayar-altin" xr:uid="{BB97837E-B5C9-9947-AA2D-31AB01E771E4}"/>
-    <hyperlink ref="C25" r:id="rId20" display="https://altin.doviz.com/18-ayar-altin" xr:uid="{D2F58527-DB82-CE45-9A91-DBEEAE314C5D}"/>
-    <hyperlink ref="C27" r:id="rId21" display="https://altin.doviz.com/22-ayar-bilezik" xr:uid="{84054C63-4822-E14C-8B2B-62CC95F37F0F}"/>
-    <hyperlink ref="C28" r:id="rId22" display="https://altin.doviz.com/22-ayar-bilezik" xr:uid="{3F1BFC98-C61C-8842-B042-AA3114610226}"/>
-    <hyperlink ref="C29" r:id="rId23" display="https://altin.doviz.com/ikibucuk-altin" xr:uid="{AE76AF81-6358-DE4B-9E0E-6A7694CF2A45}"/>
-    <hyperlink ref="C30" r:id="rId24" display="https://altin.doviz.com/ikibucuk-altin" xr:uid="{EFF96D58-0A29-5E4C-AD3F-750D25DE88C8}"/>
-    <hyperlink ref="C31" r:id="rId25" display="https://altin.doviz.com/besli-altin" xr:uid="{52ED63FE-B9FB-6A4D-9565-FB81DF478F56}"/>
-    <hyperlink ref="C32" r:id="rId26" display="https://altin.doviz.com/besli-altin" xr:uid="{5CFC1BB9-97B4-904C-BD53-2CA3A40D33FC}"/>
-    <hyperlink ref="C33" r:id="rId27" display="https://altin.doviz.com/gremse-altin" xr:uid="{78DE8CE4-EE11-0A41-8A0A-8B26B72DE814}"/>
-    <hyperlink ref="C34" r:id="rId28" display="https://altin.doviz.com/gremse-altin" xr:uid="{0A0AD7D1-34E6-0C47-8DD6-C7E731F45717}"/>
-    <hyperlink ref="C35" r:id="rId29" display="https://altin.doviz.com/resat-altin" xr:uid="{97471AA3-AB91-4548-8D47-724BF76C3071}"/>
-    <hyperlink ref="C36" r:id="rId30" display="https://altin.doviz.com/resat-altin" xr:uid="{5986116A-DA2C-AB41-8FD2-03DD3F43A641}"/>
-    <hyperlink ref="C37" r:id="rId31" display="https://altin.doviz.com/hamit-altin" xr:uid="{81C4C64D-A1A4-9B41-B7F5-FE9DEF8C5C94}"/>
-    <hyperlink ref="C38" r:id="rId32" display="https://altin.doviz.com/hamit-altin" xr:uid="{5C9629C6-6C93-C146-8E72-CBE592103CC5}"/>
-    <hyperlink ref="C39" r:id="rId33" display="https://altin.doviz.com/gumus" xr:uid="{45E6C1D0-5409-6641-BBC9-CB6CDA11ADD6}"/>
-    <hyperlink ref="C40" r:id="rId34" display="https://altin.doviz.com/gumus" xr:uid="{5ACF54F3-8BB0-BB4A-A1DB-DD9ABA13BC09}"/>
-    <hyperlink ref="C41" r:id="rId35" display="https://altin.doviz.com/gram-platin" xr:uid="{7427E7C1-24B0-2E43-A675-CAD1DA4D481F}"/>
-    <hyperlink ref="C42" r:id="rId36" display="https://altin.doviz.com/gram-platin" xr:uid="{8FC33C66-2D35-E747-9A7C-0E99F497F16B}"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://altin.doviz.com/ons" xr:uid="{2232D984-27E7-574B-9F80-74E60395F385}"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://altin.doviz.com/ons" xr:uid="{F52363D8-4B55-4644-98DD-858BCCE827CE}"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://altin.doviz.com/gram-altin" xr:uid="{AB141659-9357-7743-B58F-87890A27A7B6}"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://altin.doviz.com/gram-altin" xr:uid="{17BD8179-43CC-BC42-891D-E94789565580}"/>
+    <hyperlink ref="C9" r:id="rId5" display="https://altin.doviz.com/gram-has-altin" xr:uid="{9C378091-3F9B-1A48-84B9-A51DEAF44111}"/>
+    <hyperlink ref="C10" r:id="rId6" display="https://altin.doviz.com/gram-has-altin" xr:uid="{8338EABF-363E-2741-A013-80DF786EEB13}"/>
+    <hyperlink ref="C11" r:id="rId7" display="https://altin.doviz.com/ceyrek-altin" xr:uid="{8AE3E412-FF8B-E142-8C0A-153329DB161D}"/>
+    <hyperlink ref="C12" r:id="rId8" display="https://altin.doviz.com/ceyrek-altin" xr:uid="{A31035EB-EB0A-E64F-88F0-F2EAE7E5A55C}"/>
+    <hyperlink ref="C13" r:id="rId9" display="https://altin.doviz.com/yarim-altin" xr:uid="{D383E634-F9D6-8341-978B-4B6B0F7AC318}"/>
+    <hyperlink ref="C14" r:id="rId10" display="https://altin.doviz.com/yarim-altin" xr:uid="{482A3476-9997-544F-8A65-4C6AE31EED34}"/>
+    <hyperlink ref="C16" r:id="rId11" display="https://altin.doviz.com/tam-altin" xr:uid="{4176828D-B0CD-154B-BAFC-C6A0AB74F6DA}"/>
+    <hyperlink ref="C17" r:id="rId12" display="https://altin.doviz.com/tam-altin" xr:uid="{B1D731A5-69A5-5446-AF99-A478A510CEDE}"/>
+    <hyperlink ref="C18" r:id="rId13" display="https://altin.doviz.com/cumhuriyet-altini" xr:uid="{B5B126D7-40C2-EF40-9096-D94533240F4E}"/>
+    <hyperlink ref="C19" r:id="rId14" display="https://altin.doviz.com/cumhuriyet-altini" xr:uid="{4C27D65E-9FFA-5941-80C3-E76ADAEC16F9}"/>
+    <hyperlink ref="C20" r:id="rId15" display="https://altin.doviz.com/ata-altin" xr:uid="{DE7DA988-37B5-8A46-827B-89AEDD5A4C54}"/>
+    <hyperlink ref="C21" r:id="rId16" display="https://altin.doviz.com/ata-altin" xr:uid="{FE8708AF-1462-4E42-A2DE-8BC271C5C3BE}"/>
+    <hyperlink ref="C22" r:id="rId17" display="https://altin.doviz.com/14-ayar-altin" xr:uid="{1D02391A-1894-F748-8728-3615CD14A8D4}"/>
+    <hyperlink ref="C23" r:id="rId18" display="https://altin.doviz.com/14-ayar-altin" xr:uid="{DEC3E777-67EF-1F42-8561-26E3BA1B49FA}"/>
+    <hyperlink ref="C24" r:id="rId19" display="https://altin.doviz.com/18-ayar-altin" xr:uid="{31B63F60-A882-F044-8B88-AA47C21AE7B2}"/>
+    <hyperlink ref="C25" r:id="rId20" display="https://altin.doviz.com/18-ayar-altin" xr:uid="{7CD68C7D-16C0-114D-8F19-8787A4191123}"/>
+    <hyperlink ref="C27" r:id="rId21" display="https://altin.doviz.com/22-ayar-bilezik" xr:uid="{4D144912-075A-CF40-B484-20E2ACCC3974}"/>
+    <hyperlink ref="C28" r:id="rId22" display="https://altin.doviz.com/22-ayar-bilezik" xr:uid="{784328BF-953D-3449-9970-591CA51D70F8}"/>
+    <hyperlink ref="C29" r:id="rId23" display="https://altin.doviz.com/ikibucuk-altin" xr:uid="{9B8A76F4-2024-564A-AE24-48BD9BAD3FEA}"/>
+    <hyperlink ref="C30" r:id="rId24" display="https://altin.doviz.com/ikibucuk-altin" xr:uid="{515EEE42-08EE-8246-9320-5D66195819D7}"/>
+    <hyperlink ref="C31" r:id="rId25" display="https://altin.doviz.com/besli-altin" xr:uid="{725743BD-B008-3244-B41E-A2EBB9C50F93}"/>
+    <hyperlink ref="C32" r:id="rId26" display="https://altin.doviz.com/besli-altin" xr:uid="{A6292503-DF1E-354E-B83D-6D486081001B}"/>
+    <hyperlink ref="C33" r:id="rId27" display="https://altin.doviz.com/gremse-altin" xr:uid="{59AEF12F-E4B4-A849-96E0-5ECA6848757E}"/>
+    <hyperlink ref="C34" r:id="rId28" display="https://altin.doviz.com/gremse-altin" xr:uid="{997D6883-662B-DC45-A656-DD0C66647609}"/>
+    <hyperlink ref="C35" r:id="rId29" display="https://altin.doviz.com/resat-altin" xr:uid="{7F847F0B-C1B7-EF47-A6E1-7933DE41B98C}"/>
+    <hyperlink ref="C36" r:id="rId30" display="https://altin.doviz.com/resat-altin" xr:uid="{83238422-607C-BF49-952E-7EDF81C2106B}"/>
+    <hyperlink ref="C37" r:id="rId31" display="https://altin.doviz.com/hamit-altin" xr:uid="{C59018F8-31EC-0146-A141-F55EEC21F5D0}"/>
+    <hyperlink ref="C38" r:id="rId32" display="https://altin.doviz.com/hamit-altin" xr:uid="{C1BF219A-2032-784E-A129-7604A3307E32}"/>
+    <hyperlink ref="C39" r:id="rId33" display="https://altin.doviz.com/gumus" xr:uid="{8C28F0F0-F0C3-5D43-80FC-5BBE981E1860}"/>
+    <hyperlink ref="C40" r:id="rId34" display="https://altin.doviz.com/gumus" xr:uid="{7FC514CE-1117-8541-92AD-39B8F0A764EB}"/>
+    <hyperlink ref="C41" r:id="rId35" display="https://altin.doviz.com/gram-platin" xr:uid="{7D185E18-7B36-8049-898D-BDC6D0FE4D0C}"/>
+    <hyperlink ref="C42" r:id="rId36" display="https://altin.doviz.com/gram-platin" xr:uid="{2032EFF8-2A86-1A40-8B55-81128DC3EE46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
